--- a/cfs_6_0.85.xlsx
+++ b/cfs_6_0.85.xlsx
@@ -527,7 +527,7 @@
         <v>0.531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.66</v>
+        <v>0.804</v>
       </c>
       <c r="H2" t="n">
         <v>0.407</v>
@@ -536,7 +536,7 @@
         <v>0.639</v>
       </c>
       <c r="J2" t="n">
-        <v>0.381</v>
+        <v>0.501</v>
       </c>
       <c r="K2" t="n">
         <v>0.556</v>
@@ -573,7 +573,7 @@
         <v>0.624</v>
       </c>
       <c r="G3" t="n">
-        <v>0.645</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0.375</v>
@@ -585,7 +585,7 @@
         <v>0.368</v>
       </c>
       <c r="K3" t="n">
-        <v>0.456</v>
+        <v>0.44</v>
       </c>
       <c r="L3" t="n">
         <v>0.447</v>
@@ -610,7 +610,7 @@
         <v>0.68</v>
       </c>
       <c r="D4" t="n">
-        <v>0.419</v>
+        <v>0.479</v>
       </c>
       <c r="E4" t="n">
         <v>0.601</v>
@@ -619,7 +619,7 @@
         <v>0.58</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.734</v>
       </c>
       <c r="H4" t="n">
         <v>0.394</v>
@@ -665,7 +665,7 @@
         <v>0.627</v>
       </c>
       <c r="G5" t="n">
-        <v>0.645</v>
+        <v>0.789</v>
       </c>
       <c r="H5" t="n">
         <v>0.352</v>
@@ -677,7 +677,7 @@
         <v>0.322</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.417</v>
       </c>
       <c r="L5" t="n">
         <v>0.429</v>
@@ -711,10 +711,10 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.593</v>
+        <v>0.723</v>
       </c>
       <c r="H6" t="n">
-        <v>0.353</v>
+        <v>0.404</v>
       </c>
       <c r="I6" t="n">
         <v>0.589</v>
@@ -751,19 +751,19 @@
         <v>0.456</v>
       </c>
       <c r="E7" t="n">
-        <v>0.577</v>
+        <v>0.538</v>
       </c>
       <c r="F7" t="n">
         <v>0.553</v>
       </c>
       <c r="G7" t="n">
-        <v>0.547</v>
+        <v>0.674</v>
       </c>
       <c r="H7" t="n">
         <v>0.4</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5</v>
+        <v>0.554</v>
       </c>
       <c r="J7" t="n">
         <v>0.408</v>
@@ -803,7 +803,7 @@
         <v>0.533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.615</v>
+        <v>0.768</v>
       </c>
       <c r="H8" t="n">
         <v>0.404</v>
@@ -812,7 +812,7 @@
         <v>0.579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.335</v>
+        <v>0.431</v>
       </c>
       <c r="K8" t="n">
         <v>0.465</v>
@@ -843,13 +843,13 @@
         <v>0.513</v>
       </c>
       <c r="E9" t="n">
-        <v>0.608</v>
+        <v>0.536</v>
       </c>
       <c r="F9" t="n">
-        <v>0.521</v>
+        <v>0.601</v>
       </c>
       <c r="G9" t="n">
-        <v>0.626</v>
+        <v>0.744</v>
       </c>
       <c r="H9" t="n">
         <v>0.395</v>
@@ -889,7 +889,7 @@
         <v>0.48</v>
       </c>
       <c r="E10" t="n">
-        <v>0.639</v>
+        <v>0.51</v>
       </c>
       <c r="F10" t="n">
         <v>0.604</v>
@@ -910,7 +910,7 @@
         <v>0.418</v>
       </c>
       <c r="L10" t="n">
-        <v>0.513</v>
+        <v>0.433</v>
       </c>
       <c r="M10" t="n">
         <v>3.73015873015873</v>
@@ -932,7 +932,7 @@
         <v>0.6909999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.466</v>
+        <v>0.527</v>
       </c>
       <c r="E11" t="n">
         <v>0.601</v>
@@ -941,10 +941,10 @@
         <v>0.576</v>
       </c>
       <c r="G11" t="n">
-        <v>0.582</v>
+        <v>0.778</v>
       </c>
       <c r="H11" t="n">
-        <v>0.347</v>
+        <v>0.381</v>
       </c>
       <c r="I11" t="n">
         <v>0.552</v>
@@ -981,7 +981,7 @@
         <v>0.482</v>
       </c>
       <c r="E12" t="n">
-        <v>0.591</v>
+        <v>0.539</v>
       </c>
       <c r="F12" t="n">
         <v>0.5669999999999999</v>
@@ -993,10 +993,10 @@
         <v>0.376</v>
       </c>
       <c r="I12" t="n">
-        <v>0.485</v>
+        <v>0.542</v>
       </c>
       <c r="J12" t="n">
-        <v>0.235</v>
+        <v>0.338</v>
       </c>
       <c r="K12" t="n">
         <v>0.438</v>
@@ -1033,7 +1033,7 @@
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.573</v>
+        <v>0.794</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
@@ -1073,13 +1073,13 @@
         <v>0.443</v>
       </c>
       <c r="E14" t="n">
-        <v>0.578</v>
+        <v>0.554</v>
       </c>
       <c r="F14" t="n">
         <v>0.556</v>
       </c>
       <c r="G14" t="n">
-        <v>0.575</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0.374</v>
@@ -1088,10 +1088,10 @@
         <v>0.579</v>
       </c>
       <c r="J14" t="n">
-        <v>0.294</v>
+        <v>0.392</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.427</v>
       </c>
       <c r="L14" t="n">
         <v>0.455</v>
@@ -1119,13 +1119,13 @@
         <v>0.473</v>
       </c>
       <c r="E15" t="n">
-        <v>0.615</v>
+        <v>0.538</v>
       </c>
       <c r="F15" t="n">
-        <v>0.521</v>
+        <v>0.596</v>
       </c>
       <c r="G15" t="n">
-        <v>0.626</v>
+        <v>0.756</v>
       </c>
       <c r="H15" t="n">
         <v>0.343</v>
@@ -1134,7 +1134,7 @@
         <v>0.547</v>
       </c>
       <c r="J15" t="n">
-        <v>0.33</v>
+        <v>0.299</v>
       </c>
       <c r="K15" t="n">
         <v>0.467</v>
@@ -1171,13 +1171,13 @@
         <v>0.598</v>
       </c>
       <c r="G16" t="n">
-        <v>0.616</v>
+        <v>0.742</v>
       </c>
       <c r="H16" t="n">
         <v>0.35</v>
       </c>
       <c r="I16" t="n">
-        <v>0.537</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J16" t="n">
         <v>0.337</v>
@@ -1186,7 +1186,7 @@
         <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>0.43</v>
+        <v>0.397</v>
       </c>
       <c r="M16" t="n">
         <v>6.722222222222222</v>
@@ -1217,7 +1217,7 @@
         <v>0.573</v>
       </c>
       <c r="G17" t="n">
-        <v>0.627</v>
+        <v>0.742</v>
       </c>
       <c r="H17" t="n">
         <v>0.361</v>
@@ -1226,10 +1226,10 @@
         <v>0.53</v>
       </c>
       <c r="J17" t="n">
-        <v>0.325</v>
+        <v>0.388</v>
       </c>
       <c r="K17" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L17" t="n">
         <v>0.428</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.634</v>
+        <v>0.605</v>
       </c>
       <c r="C18" t="n">
         <v>0.694</v>
@@ -1257,13 +1257,13 @@
         <v>0.496</v>
       </c>
       <c r="E18" t="n">
-        <v>0.616</v>
+        <v>0.546</v>
       </c>
       <c r="F18" t="n">
         <v>0.596</v>
       </c>
       <c r="G18" t="n">
-        <v>0.658</v>
+        <v>0.76</v>
       </c>
       <c r="H18" t="n">
         <v>0.36</v>
@@ -1272,7 +1272,7 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>0.342</v>
+        <v>0.315</v>
       </c>
       <c r="K18" t="n">
         <v>0.475</v>
@@ -1309,13 +1309,13 @@
         <v>0.552</v>
       </c>
       <c r="G19" t="n">
-        <v>0.536</v>
+        <v>0.72</v>
       </c>
       <c r="H19" t="n">
-        <v>0.412</v>
+        <v>0.425</v>
       </c>
       <c r="I19" t="n">
-        <v>0.495</v>
+        <v>0.603</v>
       </c>
       <c r="J19" t="n">
         <v>0.456</v>
@@ -1349,7 +1349,7 @@
         <v>0.473</v>
       </c>
       <c r="E20" t="n">
-        <v>0.642</v>
+        <v>0.536</v>
       </c>
       <c r="F20" t="n">
         <v>0.552</v>
@@ -1370,7 +1370,7 @@
         <v>0.444</v>
       </c>
       <c r="L20" t="n">
-        <v>0.516</v>
+        <v>0.431</v>
       </c>
       <c r="M20" t="n">
         <v>4.982142857142857</v>
@@ -1389,19 +1389,19 @@
         <v>0.602</v>
       </c>
       <c r="C21" t="n">
-        <v>0.724</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D21" t="n">
         <v>0.495</v>
       </c>
       <c r="E21" t="n">
-        <v>0.633</v>
+        <v>0.604</v>
       </c>
       <c r="F21" t="n">
         <v>0.654</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0.329</v>
@@ -1416,7 +1416,7 @@
         <v>0.373</v>
       </c>
       <c r="L21" t="n">
-        <v>0.463</v>
+        <v>0.385</v>
       </c>
       <c r="M21" t="n">
         <v>7.21875</v>
@@ -1447,16 +1447,16 @@
         <v>0.604</v>
       </c>
       <c r="G22" t="n">
-        <v>0.615</v>
+        <v>0.727</v>
       </c>
       <c r="H22" t="n">
-        <v>0.353</v>
+        <v>0.442</v>
       </c>
       <c r="I22" t="n">
         <v>0.549</v>
       </c>
       <c r="J22" t="n">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="K22" t="n">
         <v>0.482</v>
@@ -1493,7 +1493,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>0.599</v>
+        <v>0.768</v>
       </c>
       <c r="H23" t="n">
         <v>0.374</v>
@@ -1539,13 +1539,13 @@
         <v>0.577</v>
       </c>
       <c r="G24" t="n">
-        <v>0.594</v>
+        <v>0.78</v>
       </c>
       <c r="H24" t="n">
         <v>0.361</v>
       </c>
       <c r="I24" t="n">
-        <v>0.526</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J24" t="n">
         <v>0.336</v>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.67</v>
+        <v>0.725</v>
       </c>
       <c r="C25" t="n">
         <v>0.628</v>
@@ -1585,7 +1585,7 @@
         <v>0.501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.675</v>
+        <v>0.772</v>
       </c>
       <c r="H25" t="n">
         <v>0.36</v>
@@ -1600,7 +1600,7 @@
         <v>0.414</v>
       </c>
       <c r="L25" t="n">
-        <v>0.496</v>
+        <v>0.424</v>
       </c>
       <c r="M25" t="n">
         <v>2.442307692307693</v>
@@ -1619,19 +1619,19 @@
         <v>0.622</v>
       </c>
       <c r="C26" t="n">
-        <v>0.718</v>
+        <v>0.655</v>
       </c>
       <c r="D26" t="n">
         <v>0.452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.632</v>
+        <v>0.579</v>
       </c>
       <c r="F26" t="n">
         <v>0.5570000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.676</v>
+        <v>0.778</v>
       </c>
       <c r="H26" t="n">
         <v>0.385</v>
@@ -1671,13 +1671,13 @@
         <v>0.466</v>
       </c>
       <c r="E27" t="n">
-        <v>0.578</v>
+        <v>0.508</v>
       </c>
       <c r="F27" t="n">
         <v>0.571</v>
       </c>
       <c r="G27" t="n">
-        <v>0.609</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0.352</v>
@@ -1695,7 +1695,7 @@
         <v>0.421</v>
       </c>
       <c r="M27" t="n">
-        <v>2.7</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="N27" t="n">
         <v>2.533333333333333</v>
@@ -1711,13 +1711,13 @@
         <v>0.584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.724</v>
+        <v>0.631</v>
       </c>
       <c r="D28" t="n">
         <v>0.45</v>
       </c>
       <c r="E28" t="n">
-        <v>0.556</v>
+        <v>0.51</v>
       </c>
       <c r="F28" t="n">
         <v>0.571</v>
@@ -1738,7 +1738,7 @@
         <v>0.425</v>
       </c>
       <c r="L28" t="n">
-        <v>0.51</v>
+        <v>0.456</v>
       </c>
       <c r="M28" t="n">
         <v>2.021276595744681</v>
@@ -1757,13 +1757,13 @@
         <v>0.61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.699</v>
+        <v>0.629</v>
       </c>
       <c r="D29" t="n">
-        <v>0.457</v>
+        <v>0.505</v>
       </c>
       <c r="E29" t="n">
-        <v>0.616</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F29" t="n">
         <v>0.5590000000000001</v>
@@ -1778,7 +1778,7 @@
         <v>0.576</v>
       </c>
       <c r="J29" t="n">
-        <v>0.355</v>
+        <v>0.464</v>
       </c>
       <c r="K29" t="n">
         <v>0.471</v>
@@ -1803,13 +1803,13 @@
         <v>0.546</v>
       </c>
       <c r="C30" t="n">
-        <v>0.671</v>
+        <v>0.597</v>
       </c>
       <c r="D30" t="n">
         <v>0.424</v>
       </c>
       <c r="E30" t="n">
-        <v>0.633</v>
+        <v>0.536</v>
       </c>
       <c r="F30" t="n">
         <v>0.535</v>
@@ -1827,7 +1827,7 @@
         <v>0.416</v>
       </c>
       <c r="K30" t="n">
-        <v>0.583</v>
+        <v>0.463</v>
       </c>
       <c r="L30" t="n">
         <v>0.461</v>
@@ -1861,7 +1861,7 @@
         <v>0.543</v>
       </c>
       <c r="G31" t="n">
-        <v>0.633</v>
+        <v>0.763</v>
       </c>
       <c r="H31" t="n">
         <v>0.376</v>
@@ -1876,7 +1876,7 @@
         <v>0.434</v>
       </c>
       <c r="L31" t="n">
-        <v>0.496</v>
+        <v>0.435</v>
       </c>
       <c r="M31" t="n">
         <v>0.9361702127659575</v>
@@ -1901,13 +1901,13 @@
         <v>0.426</v>
       </c>
       <c r="E32" t="n">
-        <v>0.596</v>
+        <v>0.524</v>
       </c>
       <c r="F32" t="n">
         <v>0.511</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="H32" t="n">
         <v>0.463</v>
@@ -1916,13 +1916,13 @@
         <v>0.574</v>
       </c>
       <c r="J32" t="n">
-        <v>0.423</v>
+        <v>0.523</v>
       </c>
       <c r="K32" t="n">
         <v>0.499</v>
       </c>
       <c r="L32" t="n">
-        <v>0.505</v>
+        <v>0.463</v>
       </c>
       <c r="M32" t="n">
         <v>0.07894736842105263</v>
@@ -1947,7 +1947,7 @@
         <v>0.487</v>
       </c>
       <c r="E33" t="n">
-        <v>0.632</v>
+        <v>0.516</v>
       </c>
       <c r="F33" t="n">
         <v>0.517</v>
@@ -1968,7 +1968,7 @@
         <v>0.504</v>
       </c>
       <c r="L33" t="n">
-        <v>0.451</v>
+        <v>0.395</v>
       </c>
       <c r="M33" t="n">
         <v>1.233333333333333</v>
@@ -1993,7 +1993,7 @@
         <v>0.494</v>
       </c>
       <c r="E34" t="n">
-        <v>0.594</v>
+        <v>0.516</v>
       </c>
       <c r="F34" t="n">
         <v>0.542</v>
@@ -2014,7 +2014,7 @@
         <v>0.416</v>
       </c>
       <c r="L34" t="n">
-        <v>0.501</v>
+        <v>0.395</v>
       </c>
       <c r="M34" t="n">
         <v>1.641025641025641</v>
@@ -2033,7 +2033,7 @@
         <v>0.6860000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>0.611</v>
+        <v>0.622</v>
       </c>
       <c r="D35" t="n">
         <v>0.478</v>
@@ -2045,7 +2045,7 @@
         <v>0.5639999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>0.598</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0.374</v>
@@ -2054,7 +2054,7 @@
         <v>0.547</v>
       </c>
       <c r="J35" t="n">
-        <v>0.369</v>
+        <v>0.467</v>
       </c>
       <c r="K35" t="n">
         <v>0.479</v>
@@ -2079,13 +2079,13 @@
         <v>0.625</v>
       </c>
       <c r="C36" t="n">
-        <v>0.704</v>
+        <v>0.661</v>
       </c>
       <c r="D36" t="n">
         <v>0.478</v>
       </c>
       <c r="E36" t="n">
-        <v>0.592</v>
+        <v>0.529</v>
       </c>
       <c r="F36" t="n">
         <v>0.556</v>
@@ -2106,7 +2106,7 @@
         <v>0.471</v>
       </c>
       <c r="L36" t="n">
-        <v>0.495</v>
+        <v>0.432</v>
       </c>
       <c r="M36" t="n">
         <v>3.042553191489362</v>
@@ -2131,7 +2131,7 @@
         <v>0.484</v>
       </c>
       <c r="E37" t="n">
-        <v>0.639</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F37" t="n">
         <v>0.553</v>
@@ -2149,10 +2149,10 @@
         <v>0.351</v>
       </c>
       <c r="K37" t="n">
-        <v>0.45</v>
+        <v>0.337</v>
       </c>
       <c r="L37" t="n">
-        <v>0.513</v>
+        <v>0.387</v>
       </c>
       <c r="M37" t="n">
         <v>2.021739130434783</v>
@@ -2177,13 +2177,13 @@
         <v>0.48</v>
       </c>
       <c r="E38" t="n">
-        <v>0.639</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F38" t="n">
         <v>0.57</v>
       </c>
       <c r="G38" t="n">
-        <v>0.645</v>
+        <v>0.763</v>
       </c>
       <c r="H38" t="n">
         <v>0.362</v>
@@ -2235,10 +2235,10 @@
         <v>0.339</v>
       </c>
       <c r="I39" t="n">
-        <v>0.545</v>
+        <v>0.584</v>
       </c>
       <c r="J39" t="n">
-        <v>0.235</v>
+        <v>0.426</v>
       </c>
       <c r="K39" t="n">
         <v>0.475</v>
@@ -2263,19 +2263,19 @@
         <v>0.571</v>
       </c>
       <c r="C40" t="n">
-        <v>0.699</v>
+        <v>0.658</v>
       </c>
       <c r="D40" t="n">
-        <v>0.436</v>
+        <v>0.491</v>
       </c>
       <c r="E40" t="n">
-        <v>0.616</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F40" t="n">
         <v>0.525</v>
       </c>
       <c r="G40" t="n">
-        <v>0.658</v>
+        <v>0.719</v>
       </c>
       <c r="H40" t="n">
         <v>0.375</v>
@@ -2315,10 +2315,10 @@
         <v>0.483</v>
       </c>
       <c r="E41" t="n">
-        <v>0.603</v>
+        <v>0.51</v>
       </c>
       <c r="F41" t="n">
-        <v>0.589</v>
+        <v>0.555</v>
       </c>
       <c r="G41" t="n">
         <v>0.731</v>
@@ -2336,7 +2336,7 @@
         <v>0.406</v>
       </c>
       <c r="L41" t="n">
-        <v>0.48</v>
+        <v>0.397</v>
       </c>
       <c r="M41" t="n">
         <v>4.785714285714286</v>
@@ -2364,19 +2364,19 @@
         <v>0.583</v>
       </c>
       <c r="F42" t="n">
-        <v>0.581</v>
+        <v>0.653</v>
       </c>
       <c r="G42" t="n">
         <v>0.704</v>
       </c>
       <c r="H42" t="n">
-        <v>0.337</v>
+        <v>0.475</v>
       </c>
       <c r="I42" t="n">
         <v>0.539</v>
       </c>
       <c r="J42" t="n">
-        <v>0.235</v>
+        <v>0.332</v>
       </c>
       <c r="K42" t="n">
         <v>0.472</v>
@@ -2407,13 +2407,13 @@
         <v>0.461</v>
       </c>
       <c r="E43" t="n">
-        <v>0.588</v>
+        <v>0.539</v>
       </c>
       <c r="F43" t="n">
         <v>0.533</v>
       </c>
       <c r="G43" t="n">
-        <v>0.597</v>
+        <v>0.712</v>
       </c>
       <c r="H43" t="n">
         <v>0.373</v>
@@ -2450,16 +2450,16 @@
         <v>0.654</v>
       </c>
       <c r="D44" t="n">
-        <v>0.467</v>
+        <v>0.527</v>
       </c>
       <c r="E44" t="n">
-        <v>0.632</v>
+        <v>0.582</v>
       </c>
       <c r="F44" t="n">
-        <v>0.633</v>
+        <v>0.569</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.778</v>
       </c>
       <c r="H44" t="n">
         <v>0.367</v>
@@ -2496,16 +2496,16 @@
         <v>0.662</v>
       </c>
       <c r="D45" t="n">
-        <v>0.431</v>
+        <v>0.371</v>
       </c>
       <c r="E45" t="n">
-        <v>0.587</v>
+        <v>0.511</v>
       </c>
       <c r="F45" t="n">
         <v>0.634</v>
       </c>
       <c r="G45" t="n">
-        <v>0.624</v>
+        <v>0.706</v>
       </c>
       <c r="H45" t="n">
         <v>0.372</v>
@@ -2514,7 +2514,7 @@
         <v>0.54</v>
       </c>
       <c r="J45" t="n">
-        <v>0.344</v>
+        <v>0.347</v>
       </c>
       <c r="K45" t="n">
         <v>0.477</v>
@@ -2539,16 +2539,16 @@
         <v>0.628</v>
       </c>
       <c r="C46" t="n">
-        <v>0.702</v>
+        <v>0.628</v>
       </c>
       <c r="D46" t="n">
         <v>0.439</v>
       </c>
       <c r="E46" t="n">
-        <v>0.619</v>
+        <v>0.518</v>
       </c>
       <c r="F46" t="n">
-        <v>0.49</v>
+        <v>0.457</v>
       </c>
       <c r="G46" t="n">
         <v>0.638</v>
@@ -2591,13 +2591,13 @@
         <v>0.502</v>
       </c>
       <c r="E47" t="n">
-        <v>0.642</v>
+        <v>0.551</v>
       </c>
       <c r="F47" t="n">
         <v>0.5580000000000001</v>
       </c>
       <c r="G47" t="n">
-        <v>0.618</v>
+        <v>0.71</v>
       </c>
       <c r="H47" t="n">
         <v>0.386</v>
@@ -2609,10 +2609,10 @@
         <v>0.4</v>
       </c>
       <c r="K47" t="n">
-        <v>0.599</v>
+        <v>0.483</v>
       </c>
       <c r="L47" t="n">
-        <v>0.453</v>
+        <v>0.476</v>
       </c>
       <c r="M47" t="n">
         <v>1.342857142857143</v>
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.696</v>
       </c>
       <c r="C48" t="n">
-        <v>0.732</v>
+        <v>0.604</v>
       </c>
       <c r="D48" t="n">
         <v>0.466</v>
@@ -2643,7 +2643,7 @@
         <v>0.525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.638</v>
+        <v>0.736</v>
       </c>
       <c r="H48" t="n">
         <v>0.372</v>
@@ -2680,7 +2680,7 @@
         <v>0.588</v>
       </c>
       <c r="D49" t="n">
-        <v>0.412</v>
+        <v>0.461</v>
       </c>
       <c r="E49" t="n">
         <v>0.533</v>
@@ -2698,7 +2698,7 @@
         <v>0.602</v>
       </c>
       <c r="J49" t="n">
-        <v>0.314</v>
+        <v>0.533</v>
       </c>
       <c r="K49" t="n">
         <v>0.608</v>
@@ -2723,7 +2723,7 @@
         <v>0.674</v>
       </c>
       <c r="C50" t="n">
-        <v>0.702</v>
+        <v>0.738</v>
       </c>
       <c r="D50" t="n">
         <v>0.472</v>
@@ -2735,7 +2735,7 @@
         <v>0.569</v>
       </c>
       <c r="G50" t="n">
-        <v>0.624</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0.37</v>
@@ -2747,7 +2747,7 @@
         <v>0.39</v>
       </c>
       <c r="K50" t="n">
-        <v>0.553</v>
+        <v>0.492</v>
       </c>
       <c r="L50" t="n">
         <v>0.451</v>
@@ -2772,7 +2772,7 @@
         <v>0.633</v>
       </c>
       <c r="D51" t="n">
-        <v>0.397</v>
+        <v>0.451</v>
       </c>
       <c r="E51" t="n">
         <v>0.5570000000000001</v>
@@ -2781,10 +2781,10 @@
         <v>0.532</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="H51" t="n">
-        <v>0.37</v>
+        <v>0.412</v>
       </c>
       <c r="I51" t="n">
         <v>0.538</v>
@@ -2827,7 +2827,7 @@
         <v>0.554</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.805</v>
       </c>
       <c r="H52" t="n">
         <v>0.382</v>
@@ -2864,10 +2864,10 @@
         <v>0.671</v>
       </c>
       <c r="D53" t="n">
-        <v>0.515</v>
+        <v>0.471</v>
       </c>
       <c r="E53" t="n">
-        <v>0.589</v>
+        <v>0.519</v>
       </c>
       <c r="F53" t="n">
         <v>0.549</v>
@@ -2888,7 +2888,7 @@
         <v>0.462</v>
       </c>
       <c r="L53" t="n">
-        <v>0.497</v>
+        <v>0.412</v>
       </c>
       <c r="M53" t="n">
         <v>3.555555555555555</v>
@@ -2919,7 +2919,7 @@
         <v>0.572</v>
       </c>
       <c r="G54" t="n">
-        <v>0.615</v>
+        <v>0.669</v>
       </c>
       <c r="H54" t="n">
         <v>0.363</v>
@@ -2928,7 +2928,7 @@
         <v>0.579</v>
       </c>
       <c r="J54" t="n">
-        <v>0.335</v>
+        <v>0.474</v>
       </c>
       <c r="K54" t="n">
         <v>0.453</v>
@@ -2953,22 +2953,22 @@
         <v>0.555</v>
       </c>
       <c r="C55" t="n">
-        <v>0.699</v>
+        <v>0.657</v>
       </c>
       <c r="D55" t="n">
         <v>0.453</v>
       </c>
       <c r="E55" t="n">
-        <v>0.616</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="F55" t="n">
         <v>0.492</v>
       </c>
       <c r="G55" t="n">
-        <v>0.642</v>
+        <v>0.697</v>
       </c>
       <c r="H55" t="n">
-        <v>0.382</v>
+        <v>0.412</v>
       </c>
       <c r="I55" t="n">
         <v>0.538</v>
@@ -2999,13 +2999,13 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.731</v>
+        <v>0.621</v>
       </c>
       <c r="D56" t="n">
         <v>0.452</v>
       </c>
       <c r="E56" t="n">
-        <v>0.642</v>
+        <v>0.547</v>
       </c>
       <c r="F56" t="n">
         <v>0.524</v>
@@ -3026,7 +3026,7 @@
         <v>0.478</v>
       </c>
       <c r="L56" t="n">
-        <v>0.469</v>
+        <v>0.415</v>
       </c>
       <c r="M56" t="n">
         <v>1.961538461538461</v>
@@ -3057,13 +3057,13 @@
         <v>0.602</v>
       </c>
       <c r="G57" t="n">
-        <v>0.594</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H57" t="n">
-        <v>0.367</v>
+        <v>0.453</v>
       </c>
       <c r="I57" t="n">
-        <v>0.526</v>
+        <v>0.552</v>
       </c>
       <c r="J57" t="n">
         <v>0.356</v>
@@ -3091,13 +3091,13 @@
         <v>0.613</v>
       </c>
       <c r="C58" t="n">
-        <v>0.724</v>
+        <v>0.655</v>
       </c>
       <c r="D58" t="n">
         <v>0.503</v>
       </c>
       <c r="E58" t="n">
-        <v>0.596</v>
+        <v>0.525</v>
       </c>
       <c r="F58" t="n">
         <v>0.594</v>
@@ -3109,7 +3109,7 @@
         <v>0.37</v>
       </c>
       <c r="I58" t="n">
-        <v>0.528</v>
+        <v>0.504</v>
       </c>
       <c r="J58" t="n">
         <v>0.361</v>
@@ -3118,7 +3118,7 @@
         <v>0.471</v>
       </c>
       <c r="L58" t="n">
-        <v>0.51</v>
+        <v>0.431</v>
       </c>
       <c r="M58" t="n">
         <v>1.818181818181818</v>
@@ -3152,13 +3152,13 @@
         <v>0.676</v>
       </c>
       <c r="H59" t="n">
-        <v>0.327</v>
+        <v>0.361</v>
       </c>
       <c r="I59" t="n">
         <v>0.577</v>
       </c>
       <c r="J59" t="n">
-        <v>0.266</v>
+        <v>0.467</v>
       </c>
       <c r="K59" t="n">
         <v>0.451</v>
@@ -3186,10 +3186,10 @@
         <v>0.596</v>
       </c>
       <c r="D60" t="n">
-        <v>0.494</v>
+        <v>0.477</v>
       </c>
       <c r="E60" t="n">
-        <v>0.632</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="F60" t="n">
         <v>0.5669999999999999</v>
@@ -3204,7 +3204,7 @@
         <v>0.496</v>
       </c>
       <c r="J60" t="n">
-        <v>0.264</v>
+        <v>0.418</v>
       </c>
       <c r="K60" t="n">
         <v>0.375</v>
@@ -3229,13 +3229,13 @@
         <v>0.606</v>
       </c>
       <c r="C61" t="n">
-        <v>0.702</v>
+        <v>0.63</v>
       </c>
       <c r="D61" t="n">
         <v>0.456</v>
       </c>
       <c r="E61" t="n">
-        <v>0.619</v>
+        <v>0.509</v>
       </c>
       <c r="F61" t="n">
         <v>0.612</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.71</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3333,16 +3333,16 @@
         <v>0.555</v>
       </c>
       <c r="G63" t="n">
-        <v>0.573</v>
+        <v>0.625</v>
       </c>
       <c r="H63" t="n">
-        <v>0.388</v>
+        <v>0.443</v>
       </c>
       <c r="I63" t="n">
         <v>0.5610000000000001</v>
       </c>
       <c r="J63" t="n">
-        <v>0.292</v>
+        <v>0.474</v>
       </c>
       <c r="K63" t="n">
         <v>0.477</v>
@@ -3367,7 +3367,7 @@
         <v>0.672</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.669</v>
       </c>
       <c r="D64" t="n">
         <v>0.465</v>
@@ -3379,7 +3379,7 @@
         <v>0.585</v>
       </c>
       <c r="G64" t="n">
-        <v>0.719</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0.35</v>
@@ -3394,7 +3394,7 @@
         <v>0.39</v>
       </c>
       <c r="L64" t="n">
-        <v>0.481</v>
+        <v>0.406</v>
       </c>
       <c r="M64" t="n">
         <v>4.8</v>
@@ -3425,7 +3425,7 @@
         <v>0.592</v>
       </c>
       <c r="G65" t="n">
-        <v>0.587</v>
+        <v>0.74</v>
       </c>
       <c r="H65" t="n">
         <v>0.39</v>
@@ -3465,16 +3465,16 @@
         <v>0.458</v>
       </c>
       <c r="E66" t="n">
-        <v>0.627</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="F66" t="n">
         <v>0.595</v>
       </c>
       <c r="G66" t="n">
-        <v>0.653</v>
+        <v>0.72</v>
       </c>
       <c r="H66" t="n">
-        <v>0.346</v>
+        <v>0.425</v>
       </c>
       <c r="I66" t="n">
         <v>0.546</v>
@@ -3517,16 +3517,16 @@
         <v>0.593</v>
       </c>
       <c r="G67" t="n">
-        <v>0.594</v>
+        <v>0.668</v>
       </c>
       <c r="H67" t="n">
         <v>0.378</v>
       </c>
       <c r="I67" t="n">
-        <v>0.526</v>
+        <v>0.547</v>
       </c>
       <c r="J67" t="n">
-        <v>0.355</v>
+        <v>0.48</v>
       </c>
       <c r="K67" t="n">
         <v>0.455</v>
@@ -3551,10 +3551,10 @@
         <v>0.623</v>
       </c>
       <c r="C68" t="n">
-        <v>0.659</v>
+        <v>0.605</v>
       </c>
       <c r="D68" t="n">
-        <v>0.465</v>
+        <v>0.436</v>
       </c>
       <c r="E68" t="n">
         <v>0.541</v>
@@ -3563,10 +3563,10 @@
         <v>0.496</v>
       </c>
       <c r="G68" t="n">
-        <v>0.602</v>
+        <v>0.72</v>
       </c>
       <c r="H68" t="n">
-        <v>0.362</v>
+        <v>0.425</v>
       </c>
       <c r="I68" t="n">
         <v>0.518</v>
@@ -3603,13 +3603,13 @@
         <v>0.463</v>
       </c>
       <c r="E69" t="n">
-        <v>0.583</v>
+        <v>0.553</v>
       </c>
       <c r="F69" t="n">
         <v>0.518</v>
       </c>
       <c r="G69" t="n">
-        <v>0.616</v>
+        <v>0.756</v>
       </c>
       <c r="H69" t="n">
         <v>0.371</v>
@@ -3643,13 +3643,13 @@
         <v>0.619</v>
       </c>
       <c r="C70" t="n">
-        <v>0.715</v>
+        <v>0.62</v>
       </c>
       <c r="D70" t="n">
         <v>0.478</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.516</v>
       </c>
       <c r="F70" t="n">
         <v>0.507</v>
@@ -3670,7 +3670,7 @@
         <v>0.476</v>
       </c>
       <c r="L70" t="n">
-        <v>0.437</v>
+        <v>0.395</v>
       </c>
       <c r="M70" t="n">
         <v>2.88</v>
@@ -3704,19 +3704,19 @@
         <v>0.702</v>
       </c>
       <c r="H71" t="n">
-        <v>0.331</v>
+        <v>0.41</v>
       </c>
       <c r="I71" t="n">
-        <v>0.592</v>
+        <v>0.534</v>
       </c>
       <c r="J71" t="n">
-        <v>0.278</v>
+        <v>0.415</v>
       </c>
       <c r="K71" t="n">
         <v>0.383</v>
       </c>
       <c r="L71" t="n">
-        <v>0.48</v>
+        <v>0.407</v>
       </c>
       <c r="M71" t="n">
         <v>4.325</v>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.698</v>
+        <v>0.639</v>
       </c>
       <c r="C72" t="n">
         <v>0.62</v>
@@ -3741,13 +3741,13 @@
         <v>0.42</v>
       </c>
       <c r="E72" t="n">
-        <v>0.614</v>
+        <v>0.548</v>
       </c>
       <c r="F72" t="n">
         <v>0.576</v>
       </c>
       <c r="G72" t="n">
-        <v>0.621</v>
+        <v>0.754</v>
       </c>
       <c r="H72" t="n">
         <v>0.388</v>
@@ -3793,7 +3793,7 @@
         <v>0.546</v>
       </c>
       <c r="G73" t="n">
-        <v>0.533</v>
+        <v>0.616</v>
       </c>
       <c r="H73" t="n">
         <v>0.369</v>
@@ -3802,7 +3802,7 @@
         <v>0.556</v>
       </c>
       <c r="J73" t="n">
-        <v>0.371</v>
+        <v>0.518</v>
       </c>
       <c r="K73" t="n">
         <v>0.456</v>
@@ -3833,13 +3833,13 @@
         <v>0.398</v>
       </c>
       <c r="E74" t="n">
-        <v>0.639</v>
+        <v>0.526</v>
       </c>
       <c r="F74" t="n">
         <v>0.488</v>
       </c>
       <c r="G74" t="n">
-        <v>0.552</v>
+        <v>0.66</v>
       </c>
       <c r="H74" t="n">
         <v>0.408</v>
@@ -3854,7 +3854,7 @@
         <v>0.46</v>
       </c>
       <c r="L74" t="n">
-        <v>0.513</v>
+        <v>0.472</v>
       </c>
       <c r="M74" t="n">
         <v>1.047619047619048</v>
@@ -3885,13 +3885,13 @@
         <v>0.521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.587</v>
+        <v>0.734</v>
       </c>
       <c r="H75" t="n">
         <v>0.348</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="J75" t="n">
         <v>0.325</v>
@@ -3900,7 +3900,7 @@
         <v>0.445</v>
       </c>
       <c r="L75" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="M75" t="n">
         <v>2.8</v>
@@ -3925,13 +3925,13 @@
         <v>0.44</v>
       </c>
       <c r="E76" t="n">
-        <v>0.639</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="F76" t="n">
         <v>0.576</v>
       </c>
       <c r="G76" t="n">
-        <v>0.627</v>
+        <v>0.728</v>
       </c>
       <c r="H76" t="n">
         <v>0.375</v>
@@ -3974,10 +3974,10 @@
         <v>0.581</v>
       </c>
       <c r="F77" t="n">
-        <v>0.535</v>
+        <v>0.533</v>
       </c>
       <c r="G77" t="n">
-        <v>0.645</v>
+        <v>0.794</v>
       </c>
       <c r="H77" t="n">
         <v>0.343</v>
@@ -4011,7 +4011,7 @@
         <v>0.591</v>
       </c>
       <c r="C78" t="n">
-        <v>0.704</v>
+        <v>0.644</v>
       </c>
       <c r="D78" t="n">
         <v>0.47</v>
@@ -4020,13 +4020,13 @@
         <v>0.573</v>
       </c>
       <c r="F78" t="n">
-        <v>0.554</v>
+        <v>0.653</v>
       </c>
       <c r="G78" t="n">
         <v>0.675</v>
       </c>
       <c r="H78" t="n">
-        <v>0.38</v>
+        <v>0.475</v>
       </c>
       <c r="I78" t="n">
         <v>0.532</v>
@@ -4038,7 +4038,7 @@
         <v>0.439</v>
       </c>
       <c r="L78" t="n">
-        <v>0.495</v>
+        <v>0.436</v>
       </c>
       <c r="M78" t="n">
         <v>3.058823529411764</v>
@@ -4057,7 +4057,7 @@
         <v>0.645</v>
       </c>
       <c r="C79" t="n">
-        <v>0.698</v>
+        <v>0.607</v>
       </c>
       <c r="D79" t="n">
         <v>0.422</v>
@@ -4069,7 +4069,7 @@
         <v>0.522</v>
       </c>
       <c r="G79" t="n">
-        <v>0.604</v>
+        <v>0.78</v>
       </c>
       <c r="H79" t="n">
         <v>0.37</v>
@@ -4115,10 +4115,10 @@
         <v>0.5</v>
       </c>
       <c r="G80" t="n">
-        <v>0.597</v>
+        <v>0.763</v>
       </c>
       <c r="H80" t="n">
-        <v>0.355</v>
+        <v>0.343</v>
       </c>
       <c r="I80" t="n">
         <v>0.514</v>
@@ -4161,7 +4161,7 @@
         <v>0.466</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.709</v>
       </c>
       <c r="H81" t="n">
         <v>0.361</v>
@@ -4192,10 +4192,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.667</v>
+        <v>0.64</v>
       </c>
       <c r="C82" t="n">
-        <v>0.721</v>
+        <v>0.675</v>
       </c>
       <c r="D82" t="n">
         <v>0.518</v>
@@ -4210,7 +4210,7 @@
         <v>0.772</v>
       </c>
       <c r="H82" t="n">
-        <v>0.34</v>
+        <v>0.395</v>
       </c>
       <c r="I82" t="n">
         <v>0.528</v>
@@ -4222,7 +4222,7 @@
         <v>0.392</v>
       </c>
       <c r="L82" t="n">
-        <v>0.508</v>
+        <v>0.41</v>
       </c>
       <c r="M82" t="n">
         <v>4.733333333333333</v>
@@ -4244,16 +4244,16 @@
         <v>0.667</v>
       </c>
       <c r="D83" t="n">
-        <v>0.444</v>
+        <v>0.456</v>
       </c>
       <c r="E83" t="n">
-        <v>0.59</v>
+        <v>0.508</v>
       </c>
       <c r="F83" t="n">
         <v>0.483</v>
       </c>
       <c r="G83" t="n">
-        <v>0.642</v>
+        <v>0.694</v>
       </c>
       <c r="H83" t="n">
         <v>0.372</v>
@@ -4299,10 +4299,10 @@
         <v>0.508</v>
       </c>
       <c r="G84" t="n">
-        <v>0.601</v>
+        <v>0.729</v>
       </c>
       <c r="H84" t="n">
-        <v>0.307</v>
+        <v>0.43</v>
       </c>
       <c r="I84" t="n">
         <v>0.544</v>
@@ -4345,10 +4345,10 @@
         <v>0.523</v>
       </c>
       <c r="G85" t="n">
-        <v>0.571</v>
+        <v>0.66</v>
       </c>
       <c r="H85" t="n">
-        <v>0.312</v>
+        <v>0.405</v>
       </c>
       <c r="I85" t="n">
         <v>0.5629999999999999</v>
@@ -4391,13 +4391,13 @@
         <v>0.5580000000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>0.611</v>
+        <v>0.675</v>
       </c>
       <c r="H86" t="n">
-        <v>0.314</v>
+        <v>0.441</v>
       </c>
       <c r="I86" t="n">
-        <v>0.502</v>
+        <v>0.607</v>
       </c>
       <c r="J86" t="n">
         <v>0.243</v>
@@ -4425,7 +4425,7 @@
         <v>0.753</v>
       </c>
       <c r="C87" t="n">
-        <v>0.694</v>
+        <v>0.615</v>
       </c>
       <c r="D87" t="n">
         <v>0.455</v>
@@ -4443,10 +4443,10 @@
         <v>0.354</v>
       </c>
       <c r="I87" t="n">
-        <v>0.538</v>
+        <v>0.612</v>
       </c>
       <c r="J87" t="n">
-        <v>0.323</v>
+        <v>0.48</v>
       </c>
       <c r="K87" t="n">
         <v>0.459</v>
@@ -4483,7 +4483,7 @@
         <v>0.573</v>
       </c>
       <c r="G88" t="n">
-        <v>0.611</v>
+        <v>0.632</v>
       </c>
       <c r="H88" t="n">
         <v>0.341</v>
@@ -4492,7 +4492,7 @@
         <v>0.502</v>
       </c>
       <c r="J88" t="n">
-        <v>0.279</v>
+        <v>0.5</v>
       </c>
       <c r="K88" t="n">
         <v>0.436</v>
@@ -4529,7 +4529,7 @@
         <v>0.516</v>
       </c>
       <c r="G89" t="n">
-        <v>0.615</v>
+        <v>0.778</v>
       </c>
       <c r="H89" t="n">
         <v>0.373</v>
@@ -4560,10 +4560,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.626</v>
+        <v>0.696</v>
       </c>
       <c r="C90" t="n">
-        <v>0.653</v>
+        <v>0.611</v>
       </c>
       <c r="D90" t="n">
         <v>0.422</v>
@@ -4575,7 +4575,7 @@
         <v>0.476</v>
       </c>
       <c r="G90" t="n">
-        <v>0.599</v>
+        <v>0.736</v>
       </c>
       <c r="H90" t="n">
         <v>0.382</v>
@@ -4587,7 +4587,7 @@
         <v>0.319</v>
       </c>
       <c r="K90" t="n">
-        <v>0.478</v>
+        <v>0.468</v>
       </c>
       <c r="L90" t="n">
         <v>0.423</v>
@@ -4621,10 +4621,10 @@
         <v>0.54</v>
       </c>
       <c r="G91" t="n">
-        <v>0.626</v>
+        <v>0.72</v>
       </c>
       <c r="H91" t="n">
-        <v>0.342</v>
+        <v>0.425</v>
       </c>
       <c r="I91" t="n">
         <v>0.5629999999999999</v>
@@ -4636,7 +4636,7 @@
         <v>0.493</v>
       </c>
       <c r="L91" t="n">
-        <v>0.481</v>
+        <v>0.431</v>
       </c>
       <c r="M91" t="n">
         <v>2.297297297297297</v>
@@ -4661,7 +4661,7 @@
         <v>0.498</v>
       </c>
       <c r="E92" t="n">
-        <v>0.634</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F92" t="n">
         <v>0.518</v>
@@ -4673,7 +4673,7 @@
         <v>0.312</v>
       </c>
       <c r="I92" t="n">
-        <v>0.502</v>
+        <v>0.551</v>
       </c>
       <c r="J92" t="n">
         <v>0.256</v>
@@ -4682,7 +4682,7 @@
         <v>0.449</v>
       </c>
       <c r="L92" t="n">
-        <v>0.509</v>
+        <v>0.385</v>
       </c>
       <c r="M92" t="n">
         <v>6.5</v>
@@ -4701,7 +4701,7 @@
         <v>0.625</v>
       </c>
       <c r="C93" t="n">
-        <v>0.702</v>
+        <v>0.644</v>
       </c>
       <c r="D93" t="n">
         <v>0.365</v>
@@ -4713,7 +4713,7 @@
         <v>0.524</v>
       </c>
       <c r="G93" t="n">
-        <v>0.587</v>
+        <v>0.754</v>
       </c>
       <c r="H93" t="n">
         <v>0.392</v>
@@ -4725,7 +4725,7 @@
         <v>0.363</v>
       </c>
       <c r="K93" t="n">
-        <v>0.553</v>
+        <v>0.5</v>
       </c>
       <c r="L93" t="n">
         <v>0.44</v>
@@ -4747,19 +4747,19 @@
         <v>0.607</v>
       </c>
       <c r="C94" t="n">
-        <v>0.702</v>
+        <v>0.633</v>
       </c>
       <c r="D94" t="n">
-        <v>0.46</v>
+        <v>0.497</v>
       </c>
       <c r="E94" t="n">
-        <v>0.619</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="F94" t="n">
         <v>0.533</v>
       </c>
       <c r="G94" t="n">
-        <v>0.657</v>
+        <v>0.729</v>
       </c>
       <c r="H94" t="n">
         <v>0.357</v>
@@ -4799,13 +4799,13 @@
         <v>0.483</v>
       </c>
       <c r="E95" t="n">
-        <v>0.596</v>
+        <v>0.547</v>
       </c>
       <c r="F95" t="n">
         <v>0.535</v>
       </c>
       <c r="G95" t="n">
-        <v>0.622</v>
+        <v>0.746</v>
       </c>
       <c r="H95" t="n">
         <v>0.342</v>
@@ -4845,13 +4845,13 @@
         <v>0.477</v>
       </c>
       <c r="E96" t="n">
-        <v>0.643</v>
+        <v>0.577</v>
       </c>
       <c r="F96" t="n">
         <v>0.594</v>
       </c>
       <c r="G96" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.794</v>
       </c>
       <c r="H96" t="n">
         <v>0.34</v>
@@ -4888,7 +4888,7 @@
         <v>0.645</v>
       </c>
       <c r="D97" t="n">
-        <v>0.375</v>
+        <v>0.497</v>
       </c>
       <c r="E97" t="n">
         <v>0.531</v>
@@ -4897,7 +4897,7 @@
         <v>0.581</v>
       </c>
       <c r="G97" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.728</v>
       </c>
       <c r="H97" t="n">
         <v>0.315</v>
@@ -4943,7 +4943,7 @@
         <v>0.516</v>
       </c>
       <c r="G98" t="n">
-        <v>0.608</v>
+        <v>0.746</v>
       </c>
       <c r="H98" t="n">
         <v>0.362</v>
@@ -4955,10 +4955,10 @@
         <v>0.337</v>
       </c>
       <c r="K98" t="n">
-        <v>0.527</v>
+        <v>0.551</v>
       </c>
       <c r="L98" t="n">
-        <v>0.456</v>
+        <v>0.417</v>
       </c>
       <c r="M98" t="n">
         <v>3.666666666666667</v>
@@ -4980,10 +4980,10 @@
         <v>0.618</v>
       </c>
       <c r="D99" t="n">
-        <v>0.48</v>
+        <v>0.451</v>
       </c>
       <c r="E99" t="n">
-        <v>0.596</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="F99" t="n">
         <v>0.528</v>
@@ -4992,13 +4992,13 @@
         <v>0.632</v>
       </c>
       <c r="H99" t="n">
-        <v>0.343</v>
+        <v>0.41</v>
       </c>
       <c r="I99" t="n">
         <v>0.54</v>
       </c>
       <c r="J99" t="n">
-        <v>0.289</v>
+        <v>0.415</v>
       </c>
       <c r="K99" t="n">
         <v>0.422</v>
@@ -5035,7 +5035,7 @@
         <v>0.438</v>
       </c>
       <c r="G100" t="n">
-        <v>0.61</v>
+        <v>0.746</v>
       </c>
       <c r="H100" t="n">
         <v>0.359</v>
@@ -5044,7 +5044,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="J100" t="n">
-        <v>0.315</v>
+        <v>0.332</v>
       </c>
       <c r="K100" t="n">
         <v>0.489</v>
@@ -5075,19 +5075,19 @@
         <v>0.456</v>
       </c>
       <c r="E101" t="n">
-        <v>0.617</v>
+        <v>0.548</v>
       </c>
       <c r="F101" t="n">
         <v>0.583</v>
       </c>
       <c r="G101" t="n">
-        <v>0.618</v>
+        <v>0.773</v>
       </c>
       <c r="H101" t="n">
         <v>0.314</v>
       </c>
       <c r="I101" t="n">
-        <v>0.521</v>
+        <v>0.529</v>
       </c>
       <c r="J101" t="n">
         <v>0.292</v>
